--- a/Parse/Data/Таблица допусков и посадок.xlsx
+++ b/Parse/Data/Таблица допусков и посадок.xlsx
@@ -2208,7 +2208,13 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2217,37 +2223,31 @@
     <xf numFmtId="49" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2546,8 +2546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3119,112 +3119,112 @@
       <c r="A6" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="O6" s="37" t="s">
+      <c r="O6" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="P6" s="37" t="s">
+      <c r="P6" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="Q6" s="37" t="s">
+      <c r="Q6" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="R6" s="37" t="s">
+      <c r="R6" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="S6" s="37" t="s">
+      <c r="S6" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="T6" s="37" t="s">
+      <c r="T6" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="U6" s="37" t="s">
+      <c r="U6" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="V6" s="38" t="s">
+      <c r="V6" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="W6" s="38" t="s">
+      <c r="W6" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="X6" s="38" t="s">
+      <c r="X6" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="Y6" s="38" t="s">
+      <c r="Y6" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="Z6" s="38" t="s">
+      <c r="Z6" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="AA6" s="39" t="s">
+      <c r="AA6" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="AB6" s="39" t="s">
+      <c r="AB6" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="AC6" s="39" t="s">
+      <c r="AC6" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="AD6" s="40" t="s">
+      <c r="AD6" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="AE6" s="39" t="s">
+      <c r="AE6" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="AF6" s="39" t="s">
+      <c r="AF6" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="AG6" s="32" t="s">
+      <c r="AG6" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="AH6" s="32" t="s">
+      <c r="AH6" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="AI6" s="33" t="s">
+      <c r="AI6" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="AJ6" s="34" t="s">
+      <c r="AJ6" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="AK6" s="34" t="s">
+      <c r="AK6" s="36" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3232,153 +3232,153 @@
       <c r="A7" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="33"/>
-      <c r="AJ7" s="34"/>
-      <c r="AK7" s="34"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="36"/>
+      <c r="AK7" s="36"/>
     </row>
     <row r="8" spans="1:37" ht="22.5">
       <c r="A8" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="L8" s="41" t="s">
+      <c r="L8" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="M8" s="38" t="s">
+      <c r="M8" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="O8" s="38" t="s">
+      <c r="O8" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="P8" s="38" t="s">
+      <c r="P8" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="Q8" s="38" t="s">
+      <c r="Q8" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="R8" s="38" t="s">
+      <c r="R8" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="S8" s="38" t="s">
+      <c r="S8" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="T8" s="38" t="s">
+      <c r="T8" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="U8" s="38" t="s">
+      <c r="U8" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="V8" s="38" t="s">
+      <c r="V8" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="W8" s="38" t="s">
+      <c r="W8" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="X8" s="39" t="s">
+      <c r="X8" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="Y8" s="39" t="s">
+      <c r="Y8" s="37" t="s">
         <v>186</v>
       </c>
       <c r="Z8" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="AA8" s="39" t="s">
+      <c r="AA8" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="AB8" s="39" t="s">
+      <c r="AB8" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="AC8" s="39" t="s">
+      <c r="AC8" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="AD8" s="40" t="s">
+      <c r="AD8" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="AE8" s="32" t="s">
+      <c r="AE8" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="AF8" s="32" t="s">
+      <c r="AF8" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="AG8" s="32" t="s">
+      <c r="AG8" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="AH8" s="32" t="s">
+      <c r="AH8" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="AI8" s="33" t="s">
+      <c r="AI8" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="AJ8" s="34" t="s">
+      <c r="AJ8" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="AK8" s="34" t="s">
+      <c r="AK8" s="36" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3386,155 +3386,155 @@
       <c r="A9" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
       <c r="Z9" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="32"/>
-      <c r="AI9" s="33"/>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="34"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="36"/>
     </row>
     <row r="10" spans="1:37" ht="22.5">
       <c r="A10" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="K10" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="L10" s="41" t="s">
+      <c r="L10" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="M10" s="38" t="s">
+      <c r="M10" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="O10" s="38" t="s">
+      <c r="O10" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="P10" s="38" t="s">
+      <c r="P10" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="Q10" s="38" t="s">
+      <c r="Q10" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="R10" s="38" t="s">
+      <c r="R10" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="S10" s="38" t="s">
+      <c r="S10" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="T10" s="38" t="s">
+      <c r="T10" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="U10" s="38" t="s">
+      <c r="U10" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="V10" s="38" t="s">
+      <c r="V10" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="W10" s="38" t="s">
+      <c r="W10" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="X10" s="39" t="s">
+      <c r="X10" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="Y10" s="39" t="s">
+      <c r="Y10" s="37" t="s">
         <v>217</v>
       </c>
       <c r="Z10" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="AA10" s="39" t="s">
+      <c r="AA10" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="AB10" s="39" t="s">
+      <c r="AB10" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="AC10" s="39" t="s">
+      <c r="AC10" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="AD10" s="40" t="s">
+      <c r="AD10" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="AE10" s="32" t="s">
+      <c r="AE10" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="AF10" s="32" t="s">
+      <c r="AF10" s="38" t="s">
         <v>223</v>
       </c>
       <c r="AG10" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="AH10" s="42" t="s">
+      <c r="AH10" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="AI10" s="33" t="s">
+      <c r="AI10" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="AJ10" s="34" t="s">
+      <c r="AJ10" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="AK10" s="34" t="s">
+      <c r="AK10" s="36" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3542,157 +3542,157 @@
       <c r="A11" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
       <c r="Z11" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="32"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
       <c r="AG11" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="AH11" s="42"/>
-      <c r="AI11" s="33"/>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="34"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="36"/>
+      <c r="AK11" s="36"/>
     </row>
     <row r="12" spans="1:37" ht="22.5">
       <c r="A12" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="41" t="s">
+      <c r="L12" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="M12" s="38" t="s">
+      <c r="M12" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="38" t="s">
+      <c r="N12" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="38" t="s">
+      <c r="O12" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="P12" s="38" t="s">
+      <c r="P12" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="Q12" s="38" t="s">
+      <c r="Q12" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="R12" s="38" t="s">
+      <c r="R12" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="S12" s="38" t="s">
+      <c r="S12" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="T12" s="38" t="s">
+      <c r="T12" s="41" t="s">
         <v>245</v>
       </c>
       <c r="U12" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="V12" s="38" t="s">
+      <c r="V12" s="41" t="s">
         <v>88</v>
       </c>
       <c r="W12" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="X12" s="39" t="s">
+      <c r="X12" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="Y12" s="39" t="s">
+      <c r="Y12" s="37" t="s">
         <v>248</v>
       </c>
       <c r="Z12" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="AA12" s="39" t="s">
+      <c r="AA12" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="AB12" s="39" t="s">
+      <c r="AB12" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="AC12" s="39" t="s">
+      <c r="AC12" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="AD12" s="40" t="s">
+      <c r="AD12" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="AE12" s="32" t="s">
+      <c r="AE12" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="AF12" s="32" t="s">
+      <c r="AF12" s="38" t="s">
         <v>254</v>
       </c>
       <c r="AG12" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="AH12" s="42" t="s">
+      <c r="AH12" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="AI12" s="33" t="s">
+      <c r="AI12" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="AJ12" s="34" t="s">
+      <c r="AJ12" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="AK12" s="34" t="s">
+      <c r="AK12" s="36" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3700,161 +3700,161 @@
       <c r="A13" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
       <c r="U13" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="V13" s="38"/>
+      <c r="V13" s="41"/>
       <c r="W13" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
       <c r="Z13" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="40"/>
-      <c r="AE13" s="32"/>
-      <c r="AF13" s="32"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="38"/>
       <c r="AG13" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="AH13" s="42"/>
-      <c r="AI13" s="33"/>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="34"/>
+      <c r="AH13" s="33"/>
+      <c r="AI13" s="35"/>
+      <c r="AJ13" s="36"/>
+      <c r="AK13" s="36"/>
     </row>
     <row r="14" spans="1:37" ht="22.5">
       <c r="A14" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="35" t="s">
         <v>271</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="36" t="s">
         <v>272</v>
       </c>
-      <c r="K14" s="44" t="s">
+      <c r="K14" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="L14" s="43" t="s">
+      <c r="L14" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="M14" s="39" t="s">
+      <c r="M14" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="39" t="s">
+      <c r="N14" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="O14" s="39" t="s">
+      <c r="O14" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="P14" s="39" t="s">
+      <c r="P14" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="Q14" s="39" t="s">
+      <c r="Q14" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="R14" s="39" t="s">
+      <c r="R14" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="S14" s="39" t="s">
+      <c r="S14" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="T14" s="39" t="s">
+      <c r="T14" s="37" t="s">
         <v>280</v>
       </c>
       <c r="U14" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="V14" s="39" t="s">
+      <c r="V14" s="37" t="s">
         <v>282</v>
       </c>
       <c r="W14" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="X14" s="39" t="s">
+      <c r="X14" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="Y14" s="39" t="s">
+      <c r="Y14" s="37" t="s">
         <v>284</v>
       </c>
       <c r="Z14" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="AA14" s="32" t="s">
+      <c r="AA14" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="AB14" s="32" t="s">
+      <c r="AB14" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="AC14" s="32" t="s">
+      <c r="AC14" s="38" t="s">
         <v>288</v>
       </c>
-      <c r="AD14" s="40" t="s">
+      <c r="AD14" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="AE14" s="32" t="s">
+      <c r="AE14" s="38" t="s">
         <v>289</v>
       </c>
-      <c r="AF14" s="32" t="s">
+      <c r="AF14" s="38" t="s">
         <v>290</v>
       </c>
       <c r="AG14" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="AH14" s="42" t="s">
+      <c r="AH14" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="AI14" s="33" t="s">
+      <c r="AI14" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="AJ14" s="34" t="s">
+      <c r="AJ14" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="AK14" s="45" t="s">
+      <c r="AK14" s="32" t="s">
         <v>295</v>
       </c>
     </row>
@@ -3862,161 +3862,161 @@
       <c r="A15" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
       <c r="U15" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="V15" s="39"/>
+      <c r="V15" s="37"/>
       <c r="W15" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
       <c r="Z15" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
       <c r="AG15" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="AH15" s="42"/>
-      <c r="AI15" s="33"/>
-      <c r="AJ15" s="34"/>
-      <c r="AK15" s="45"/>
+      <c r="AH15" s="33"/>
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="36"/>
+      <c r="AK15" s="32"/>
     </row>
     <row r="16" spans="1:37" ht="22.5">
       <c r="A16" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="38" t="s">
         <v>302</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="J16" s="45" t="s">
+      <c r="J16" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="K16" s="44" t="s">
+      <c r="K16" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="L16" s="43" t="s">
+      <c r="L16" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="M16" s="39" t="s">
+      <c r="M16" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="N16" s="39" t="s">
+      <c r="N16" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="O16" s="39" t="s">
+      <c r="O16" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="P16" s="39" t="s">
+      <c r="P16" s="37" t="s">
         <v>306</v>
       </c>
-      <c r="Q16" s="39" t="s">
+      <c r="Q16" s="37" t="s">
         <v>307</v>
       </c>
-      <c r="R16" s="39" t="s">
+      <c r="R16" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="S16" s="39" t="s">
+      <c r="S16" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="T16" s="39" t="s">
+      <c r="T16" s="37" t="s">
         <v>216</v>
       </c>
       <c r="U16" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="V16" s="39" t="s">
+      <c r="V16" s="37" t="s">
         <v>311</v>
       </c>
       <c r="W16" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="X16" s="32" t="s">
+      <c r="X16" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="Y16" s="32" t="s">
+      <c r="Y16" s="38" t="s">
         <v>313</v>
       </c>
       <c r="Z16" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="AA16" s="32" t="s">
+      <c r="AA16" s="38" t="s">
         <v>315</v>
       </c>
-      <c r="AB16" s="32" t="s">
+      <c r="AB16" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="AC16" s="32" t="s">
+      <c r="AC16" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="AD16" s="40" t="s">
+      <c r="AD16" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="AE16" s="42" t="s">
+      <c r="AE16" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="AF16" s="42" t="s">
+      <c r="AF16" s="33" t="s">
         <v>61</v>
       </c>
       <c r="AG16" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="AH16" s="42" t="s">
+      <c r="AH16" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="AI16" s="34" t="s">
+      <c r="AI16" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="AJ16" s="45" t="s">
+      <c r="AJ16" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="AK16" s="45" t="s">
+      <c r="AK16" s="32" t="s">
         <v>319</v>
       </c>
     </row>
@@ -4024,210 +4024,210 @@
       <c r="A17" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
       <c r="U17" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="V17" s="39"/>
+      <c r="V17" s="37"/>
       <c r="W17" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
       <c r="Z17" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="42"/>
-      <c r="AF17" s="42"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="33"/>
       <c r="AG17" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="AH17" s="42"/>
-      <c r="AI17" s="34"/>
-      <c r="AJ17" s="45"/>
-      <c r="AK17" s="45"/>
+      <c r="AH17" s="33"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="32"/>
+      <c r="AK17" s="32"/>
     </row>
     <row r="18" spans="1:37" ht="22.5">
       <c r="A18" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
       <c r="U18" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="V18" s="39"/>
+      <c r="V18" s="37"/>
       <c r="W18" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
       <c r="Z18" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="40"/>
-      <c r="AE18" s="42"/>
-      <c r="AF18" s="42"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="33"/>
       <c r="AG18" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="AH18" s="42"/>
-      <c r="AI18" s="34"/>
-      <c r="AJ18" s="45"/>
-      <c r="AK18" s="45"/>
+      <c r="AH18" s="33"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="32"/>
+      <c r="AK18" s="32"/>
     </row>
     <row r="19" spans="1:37" ht="22.5">
       <c r="A19" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="40" t="s">
         <v>331</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="38" t="s">
         <v>334</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="J19" s="45" t="s">
+      <c r="J19" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="K19" s="44" t="s">
+      <c r="K19" s="39" t="s">
         <v>339</v>
       </c>
-      <c r="L19" s="43" t="s">
+      <c r="L19" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="M19" s="39" t="s">
+      <c r="M19" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="N19" s="39" t="s">
+      <c r="N19" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="O19" s="39" t="s">
+      <c r="O19" s="37" t="s">
         <v>342</v>
       </c>
-      <c r="P19" s="39" t="s">
+      <c r="P19" s="37" t="s">
         <v>343</v>
       </c>
-      <c r="Q19" s="39" t="s">
+      <c r="Q19" s="37" t="s">
         <v>344</v>
       </c>
-      <c r="R19" s="39" t="s">
+      <c r="R19" s="37" t="s">
         <v>345</v>
       </c>
-      <c r="S19" s="39" t="s">
+      <c r="S19" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="T19" s="39" t="s">
+      <c r="T19" s="37" t="s">
         <v>347</v>
       </c>
       <c r="U19" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="V19" s="39" t="s">
+      <c r="V19" s="37" t="s">
         <v>349</v>
       </c>
       <c r="W19" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="X19" s="32" t="s">
+      <c r="X19" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="Y19" s="32" t="s">
+      <c r="Y19" s="38" t="s">
         <v>351</v>
       </c>
       <c r="Z19" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="AA19" s="32" t="s">
+      <c r="AA19" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="AB19" s="32" t="s">
+      <c r="AB19" s="38" t="s">
         <v>354</v>
       </c>
-      <c r="AC19" s="32" t="s">
+      <c r="AC19" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="AD19" s="40" t="s">
+      <c r="AD19" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="AE19" s="42" t="s">
+      <c r="AE19" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="AF19" s="42" t="s">
+      <c r="AF19" s="33" t="s">
         <v>357</v>
       </c>
       <c r="AG19" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="AH19" s="42" t="s">
+      <c r="AH19" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="AI19" s="34" t="s">
+      <c r="AI19" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="AJ19" s="45" t="s">
+      <c r="AJ19" s="32" t="s">
         <v>361</v>
       </c>
-      <c r="AK19" s="45" t="s">
+      <c r="AK19" s="32" t="s">
         <v>362</v>
       </c>
     </row>
@@ -4235,210 +4235,210 @@
       <c r="A20" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
       <c r="U20" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="V20" s="39"/>
+      <c r="V20" s="37"/>
       <c r="W20" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
       <c r="Z20" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="40"/>
-      <c r="AE20" s="42"/>
-      <c r="AF20" s="42"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="34"/>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="33"/>
       <c r="AG20" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="AH20" s="42"/>
-      <c r="AI20" s="34"/>
-      <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
+      <c r="AH20" s="33"/>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="32"/>
+      <c r="AK20" s="32"/>
     </row>
     <row r="21" spans="1:37" ht="22.5">
       <c r="A21" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
       <c r="U21" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="V21" s="39"/>
+      <c r="V21" s="37"/>
       <c r="W21" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
       <c r="Z21" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="32"/>
-      <c r="AD21" s="40"/>
-      <c r="AE21" s="42"/>
-      <c r="AF21" s="42"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="34"/>
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="33"/>
       <c r="AG21" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="AH21" s="42"/>
-      <c r="AI21" s="34"/>
-      <c r="AJ21" s="45"/>
-      <c r="AK21" s="45"/>
+      <c r="AH21" s="33"/>
+      <c r="AI21" s="36"/>
+      <c r="AJ21" s="32"/>
+      <c r="AK21" s="32"/>
     </row>
     <row r="22" spans="1:37" ht="22.5">
       <c r="A22" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="40" t="s">
         <v>374</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="33" t="s">
         <v>376</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="H22" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="J22" s="45" t="s">
+      <c r="J22" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="K22" s="44" t="s">
+      <c r="K22" s="39" t="s">
         <v>378</v>
       </c>
-      <c r="L22" s="43" t="s">
+      <c r="L22" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="M22" s="39" t="s">
+      <c r="M22" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="N22" s="39" t="s">
+      <c r="N22" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="O22" s="39" t="s">
+      <c r="O22" s="37" t="s">
         <v>381</v>
       </c>
-      <c r="P22" s="39" t="s">
+      <c r="P22" s="37" t="s">
         <v>382</v>
       </c>
-      <c r="Q22" s="39" t="s">
+      <c r="Q22" s="37" t="s">
         <v>383</v>
       </c>
-      <c r="R22" s="39" t="s">
+      <c r="R22" s="37" t="s">
         <v>384</v>
       </c>
-      <c r="S22" s="39" t="s">
+      <c r="S22" s="37" t="s">
         <v>385</v>
       </c>
-      <c r="T22" s="39" t="s">
+      <c r="T22" s="37" t="s">
         <v>386</v>
       </c>
       <c r="U22" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="V22" s="39" t="s">
+      <c r="V22" s="37" t="s">
         <v>388</v>
       </c>
       <c r="W22" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="X22" s="32" t="s">
+      <c r="X22" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="Y22" s="32" t="s">
+      <c r="Y22" s="38" t="s">
         <v>390</v>
       </c>
       <c r="Z22" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="AA22" s="42" t="s">
+      <c r="AA22" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="AB22" s="42" t="s">
+      <c r="AB22" s="33" t="s">
         <v>393</v>
       </c>
-      <c r="AC22" s="42" t="s">
+      <c r="AC22" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="AD22" s="40" t="s">
+      <c r="AD22" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="AE22" s="42" t="s">
+      <c r="AE22" s="33" t="s">
         <v>394</v>
       </c>
-      <c r="AF22" s="42" t="s">
+      <c r="AF22" s="33" t="s">
         <v>395</v>
       </c>
       <c r="AG22" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="AH22" s="33" t="s">
+      <c r="AH22" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="AI22" s="34" t="s">
+      <c r="AI22" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="AJ22" s="45" t="s">
+      <c r="AJ22" s="32" t="s">
         <v>397</v>
       </c>
-      <c r="AK22" s="45" t="s">
+      <c r="AK22" s="32" t="s">
         <v>398</v>
       </c>
     </row>
@@ -4446,161 +4446,161 @@
       <c r="A23" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
       <c r="U23" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="V23" s="39"/>
+      <c r="V23" s="37"/>
       <c r="W23" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
       <c r="Z23" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="40"/>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="42"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="33"/>
+      <c r="AD23" s="34"/>
+      <c r="AE23" s="33"/>
+      <c r="AF23" s="33"/>
       <c r="AG23" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="AH23" s="33"/>
-      <c r="AI23" s="34"/>
-      <c r="AJ23" s="45"/>
-      <c r="AK23" s="45"/>
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="36"/>
+      <c r="AJ23" s="32"/>
+      <c r="AK23" s="32"/>
     </row>
     <row r="24" spans="1:37" ht="22.5">
       <c r="A24" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="37" t="s">
         <v>405</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="38" t="s">
         <v>406</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="33" t="s">
         <v>407</v>
       </c>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="34" t="s">
+      <c r="H24" s="36" t="s">
         <v>408</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="36" t="s">
         <v>272</v>
       </c>
-      <c r="J24" s="45" t="s">
+      <c r="J24" s="32" t="s">
         <v>409</v>
       </c>
-      <c r="K24" s="44" t="s">
+      <c r="K24" s="39" t="s">
         <v>410</v>
       </c>
-      <c r="L24" s="43" t="s">
+      <c r="L24" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="M24" s="39" t="s">
+      <c r="M24" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="N24" s="39" t="s">
+      <c r="N24" s="37" t="s">
         <v>411</v>
       </c>
-      <c r="O24" s="39" t="s">
+      <c r="O24" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="P24" s="39" t="s">
+      <c r="P24" s="37" t="s">
         <v>412</v>
       </c>
-      <c r="Q24" s="39" t="s">
+      <c r="Q24" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="R24" s="39" t="s">
+      <c r="R24" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="S24" s="39" t="s">
+      <c r="S24" s="37" t="s">
         <v>415</v>
       </c>
-      <c r="T24" s="39" t="s">
+      <c r="T24" s="37" t="s">
         <v>416</v>
       </c>
       <c r="U24" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="V24" s="39" t="s">
+      <c r="V24" s="37" t="s">
         <v>418</v>
       </c>
       <c r="W24" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="X24" s="32" t="s">
+      <c r="X24" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="Y24" s="32" t="s">
+      <c r="Y24" s="38" t="s">
         <v>420</v>
       </c>
       <c r="Z24" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="AA24" s="42" t="s">
+      <c r="AA24" s="33" t="s">
         <v>422</v>
       </c>
-      <c r="AB24" s="42" t="s">
+      <c r="AB24" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="AC24" s="42" t="s">
+      <c r="AC24" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="AD24" s="40" t="s">
+      <c r="AD24" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="AE24" s="42" t="s">
+      <c r="AE24" s="33" t="s">
         <v>425</v>
       </c>
-      <c r="AF24" s="42" t="s">
+      <c r="AF24" s="33" t="s">
         <v>129</v>
       </c>
       <c r="AG24" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="AH24" s="33" t="s">
+      <c r="AH24" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="AI24" s="34" t="s">
+      <c r="AI24" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="AJ24" s="45" t="s">
+      <c r="AJ24" s="32" t="s">
         <v>428</v>
       </c>
-      <c r="AK24" s="45" t="s">
+      <c r="AK24" s="32" t="s">
         <v>429</v>
       </c>
     </row>
@@ -4608,161 +4608,161 @@
       <c r="A25" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
       <c r="U25" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="V25" s="39"/>
+      <c r="V25" s="37"/>
       <c r="W25" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
       <c r="Z25" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="42"/>
-      <c r="AD25" s="40"/>
-      <c r="AE25" s="42"/>
-      <c r="AF25" s="42"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="34"/>
+      <c r="AE25" s="33"/>
+      <c r="AF25" s="33"/>
       <c r="AG25" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="AH25" s="33"/>
-      <c r="AI25" s="34"/>
-      <c r="AJ25" s="45"/>
-      <c r="AK25" s="45"/>
+      <c r="AH25" s="35"/>
+      <c r="AI25" s="36"/>
+      <c r="AJ25" s="32"/>
+      <c r="AK25" s="32"/>
     </row>
     <row r="26" spans="1:37" ht="22.5">
       <c r="A26" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="38" t="s">
         <v>302</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="38" t="s">
         <v>436</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="F26" s="42" t="s">
+      <c r="F26" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="42" t="s">
+      <c r="G26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="34" t="s">
+      <c r="H26" s="36" t="s">
         <v>438</v>
       </c>
-      <c r="I26" s="34" t="s">
+      <c r="I26" s="36" t="s">
         <v>439</v>
       </c>
-      <c r="J26" s="45" t="s">
+      <c r="J26" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="K26" s="44" t="s">
+      <c r="K26" s="39" t="s">
         <v>440</v>
       </c>
-      <c r="L26" s="43" t="s">
+      <c r="L26" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="M26" s="39" t="s">
+      <c r="M26" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="N26" s="39" t="s">
+      <c r="N26" s="37" t="s">
         <v>441</v>
       </c>
-      <c r="O26" s="39" t="s">
+      <c r="O26" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="P26" s="39" t="s">
+      <c r="P26" s="37" t="s">
         <v>442</v>
       </c>
-      <c r="Q26" s="39" t="s">
+      <c r="Q26" s="37" t="s">
         <v>443</v>
       </c>
-      <c r="R26" s="39" t="s">
+      <c r="R26" s="37" t="s">
         <v>444</v>
       </c>
-      <c r="S26" s="39" t="s">
+      <c r="S26" s="37" t="s">
         <v>445</v>
       </c>
-      <c r="T26" s="39" t="s">
+      <c r="T26" s="37" t="s">
         <v>446</v>
       </c>
       <c r="U26" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="V26" s="32" t="s">
+      <c r="V26" s="38" t="s">
         <v>448</v>
       </c>
       <c r="W26" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="X26" s="32" t="s">
+      <c r="X26" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="Y26" s="32" t="s">
+      <c r="Y26" s="38" t="s">
         <v>450</v>
       </c>
       <c r="Z26" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="AA26" s="42" t="s">
+      <c r="AA26" s="33" t="s">
         <v>452</v>
       </c>
-      <c r="AB26" s="42" t="s">
+      <c r="AB26" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="AC26" s="42" t="s">
+      <c r="AC26" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="AD26" s="40" t="s">
+      <c r="AD26" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="AE26" s="42" t="s">
+      <c r="AE26" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="AF26" s="42" t="s">
+      <c r="AF26" s="33" t="s">
         <v>62</v>
       </c>
       <c r="AG26" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="AH26" s="33" t="s">
+      <c r="AH26" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="AI26" s="34" t="s">
+      <c r="AI26" s="36" t="s">
         <v>458</v>
       </c>
-      <c r="AJ26" s="45" t="s">
+      <c r="AJ26" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="AK26" s="45" t="s">
+      <c r="AK26" s="32" t="s">
         <v>459</v>
       </c>
     </row>
@@ -4770,79 +4770,332 @@
       <c r="A27" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
       <c r="U27" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="V27" s="32"/>
+      <c r="V27" s="38"/>
       <c r="W27" s="19" t="s">
         <v>462</v>
       </c>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
       <c r="Z27" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="AA27" s="42"/>
-      <c r="AB27" s="42"/>
-      <c r="AC27" s="42"/>
-      <c r="AD27" s="40"/>
-      <c r="AE27" s="42"/>
-      <c r="AF27" s="42"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="33"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="33"/>
+      <c r="AF27" s="33"/>
       <c r="AG27" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="AH27" s="33"/>
-      <c r="AI27" s="34"/>
-      <c r="AJ27" s="45"/>
-      <c r="AK27" s="45"/>
+      <c r="AH27" s="35"/>
+      <c r="AI27" s="36"/>
+      <c r="AJ27" s="32"/>
+      <c r="AK27" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="329">
-    <mergeCell ref="AJ26:AJ27"/>
-    <mergeCell ref="AK26:AK27"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AD26:AD27"/>
-    <mergeCell ref="AE26:AE27"/>
-    <mergeCell ref="AF26:AF27"/>
-    <mergeCell ref="AH26:AH27"/>
-    <mergeCell ref="AI26:AI27"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="AK10:AK11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="AF10:AF11"/>
+    <mergeCell ref="AH10:AH11"/>
+    <mergeCell ref="AI10:AI11"/>
+    <mergeCell ref="AJ10:AJ11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AJ12:AJ13"/>
+    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AD12:AD13"/>
+    <mergeCell ref="AE12:AE13"/>
+    <mergeCell ref="AF12:AF13"/>
+    <mergeCell ref="AH12:AH13"/>
+    <mergeCell ref="AI12:AI13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="AI14:AI15"/>
+    <mergeCell ref="AJ14:AJ15"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="AC14:AC15"/>
+    <mergeCell ref="AD14:AD15"/>
+    <mergeCell ref="AE14:AE15"/>
+    <mergeCell ref="AF14:AF15"/>
+    <mergeCell ref="AH14:AH15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="AB16:AB18"/>
+    <mergeCell ref="N16:N18"/>
+    <mergeCell ref="O16:O18"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="Q16:Q18"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="S16:S18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="AJ16:AJ18"/>
+    <mergeCell ref="AK16:AK18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="AC16:AC18"/>
+    <mergeCell ref="AD16:AD18"/>
+    <mergeCell ref="AE16:AE18"/>
+    <mergeCell ref="AF16:AF18"/>
+    <mergeCell ref="AH16:AH18"/>
+    <mergeCell ref="AI16:AI18"/>
+    <mergeCell ref="T16:T18"/>
+    <mergeCell ref="V16:V18"/>
+    <mergeCell ref="X16:X18"/>
+    <mergeCell ref="Y16:Y18"/>
+    <mergeCell ref="AA16:AA18"/>
+    <mergeCell ref="S19:S21"/>
+    <mergeCell ref="T19:T21"/>
+    <mergeCell ref="V19:V21"/>
+    <mergeCell ref="X19:X21"/>
+    <mergeCell ref="Y19:Y21"/>
+    <mergeCell ref="AA19:AA21"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="Q19:Q21"/>
+    <mergeCell ref="R19:R21"/>
+    <mergeCell ref="AI19:AI21"/>
+    <mergeCell ref="AJ19:AJ21"/>
+    <mergeCell ref="AK19:AK21"/>
+    <mergeCell ref="AB19:AB21"/>
+    <mergeCell ref="AC19:AC21"/>
+    <mergeCell ref="AD19:AD21"/>
+    <mergeCell ref="AE19:AE21"/>
+    <mergeCell ref="AF19:AF21"/>
+    <mergeCell ref="AH19:AH21"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AK22:AK23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="AC22:AC23"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AE22:AE23"/>
+    <mergeCell ref="AF22:AF23"/>
+    <mergeCell ref="AH22:AH23"/>
+    <mergeCell ref="AI22:AI23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="Y22:Y23"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
@@ -4867,285 +5120,32 @@
     <mergeCell ref="M24:M25"/>
     <mergeCell ref="N24:N25"/>
     <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AK22:AK23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="AC22:AC23"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AE22:AE23"/>
-    <mergeCell ref="AF22:AF23"/>
-    <mergeCell ref="AH22:AH23"/>
-    <mergeCell ref="AI22:AI23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="Y22:Y23"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="AB22:AB23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="AI19:AI21"/>
-    <mergeCell ref="AJ19:AJ21"/>
-    <mergeCell ref="AK19:AK21"/>
-    <mergeCell ref="AB19:AB21"/>
-    <mergeCell ref="AC19:AC21"/>
-    <mergeCell ref="AD19:AD21"/>
-    <mergeCell ref="AE19:AE21"/>
-    <mergeCell ref="AF19:AF21"/>
-    <mergeCell ref="AH19:AH21"/>
-    <mergeCell ref="S19:S21"/>
-    <mergeCell ref="T19:T21"/>
-    <mergeCell ref="V19:V21"/>
-    <mergeCell ref="X19:X21"/>
-    <mergeCell ref="Y19:Y21"/>
-    <mergeCell ref="AA19:AA21"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="Q19:Q21"/>
-    <mergeCell ref="R19:R21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="AJ16:AJ18"/>
-    <mergeCell ref="AK16:AK18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="AC16:AC18"/>
-    <mergeCell ref="AD16:AD18"/>
-    <mergeCell ref="AE16:AE18"/>
-    <mergeCell ref="AF16:AF18"/>
-    <mergeCell ref="AH16:AH18"/>
-    <mergeCell ref="AI16:AI18"/>
-    <mergeCell ref="T16:T18"/>
-    <mergeCell ref="V16:V18"/>
-    <mergeCell ref="X16:X18"/>
-    <mergeCell ref="Y16:Y18"/>
-    <mergeCell ref="AA16:AA18"/>
-    <mergeCell ref="AB16:AB18"/>
-    <mergeCell ref="N16:N18"/>
-    <mergeCell ref="O16:O18"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="Q16:Q18"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="S16:S18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="AI14:AI15"/>
-    <mergeCell ref="AJ14:AJ15"/>
-    <mergeCell ref="AK14:AK15"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="AC14:AC15"/>
-    <mergeCell ref="AD14:AD15"/>
-    <mergeCell ref="AE14:AE15"/>
-    <mergeCell ref="AF14:AF15"/>
-    <mergeCell ref="AH14:AH15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="AJ12:AJ13"/>
-    <mergeCell ref="AK12:AK13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AD12:AD13"/>
-    <mergeCell ref="AE12:AE13"/>
-    <mergeCell ref="AF12:AF13"/>
-    <mergeCell ref="AH12:AH13"/>
-    <mergeCell ref="AI12:AI13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="AK10:AK11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AE10:AE11"/>
-    <mergeCell ref="AF10:AF11"/>
-    <mergeCell ref="AH10:AH11"/>
-    <mergeCell ref="AI10:AI11"/>
-    <mergeCell ref="AJ10:AJ11"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="AC10:AC11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="AJ26:AJ27"/>
+    <mergeCell ref="AK26:AK27"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="AE26:AE27"/>
+    <mergeCell ref="AF26:AF27"/>
+    <mergeCell ref="AH26:AH27"/>
+    <mergeCell ref="AI26:AI27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
